--- a/src/main/resources/populate/sentiment.xlsx
+++ b/src/main/resources/populate/sentiment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>bientôt disponible</t>
   </si>
@@ -361,17 +361,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
